--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5522388059701493</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9946236559139785</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5505952380952381</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7101727447216891</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4702380952380952</v>
+        <v>0.4910714285714285</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1270066256886873</v>
+        <v>0.09533630135986437</v>
       </c>
       <c r="J2" t="n">
-        <v>1611.657388240847</v>
+        <v>1191.609128879702</v>
       </c>
       <c r="K2" t="n">
-        <v>3378346.143396296</v>
+        <v>1720577.445468605</v>
       </c>
       <c r="L2" t="n">
-        <v>1838.027786350439</v>
+        <v>1311.707835407186</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3774109900173372</v>
+        <v>0.6829180424668108</v>
       </c>
     </row>
   </sheetData>
